--- a/tests/fixtures/verbal-conjugation.xlsx
+++ b/tests/fixtures/verbal-conjugation.xlsx
@@ -284,16 +284,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -332,7 +332,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,46 +346,40 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="201.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
+    <row r="2" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="201.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/fixtures/verbal-conjugation.xlsx
+++ b/tests/fixtures/verbal-conjugation.xlsx
@@ -175,18 +175,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> son regulares de la 1ª conjugación. modelo. Conjug. </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trobar</t>
+      <t xml:space="preserve"> son regulares de la 1ª conjugación. modelo. Conjug. t</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">robar (hallar)</t>
     </r>
   </si>
 </sst>
@@ -332,7 +332,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -362,7 +362,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="40.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
